--- a/_analysis/BDLib2_metrics_augmentation.xlsx
+++ b/_analysis/BDLib2_metrics_augmentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B22CA7-F4A2-437F-A25A-2D2C2608E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E7179-9F75-4DC9-8B30-2E015005C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -60,8 +60,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId11"/>
-    <pivotCache cacheId="51" r:id="rId12"/>
+    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="21" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -979,757 +979,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="281">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <font>
         <color auto="1"/>
@@ -17195,8 +16445,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17429,8 +16679,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5888643"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5663853"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17512,8 +16762,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17595,8 +16845,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17678,8 +16928,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17761,8 +17011,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17844,8 +17094,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17927,8 +17177,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="200044" y="5907693"/>
-              <a:ext cx="12931303" cy="4783398"/>
+              <a:off x="200044" y="5671473"/>
+              <a:ext cx="13274203" cy="4592898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21362,7 +20612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF7265BA-1E87-4DE8-B005-5FBB3F73FF7F}" name="PivotTable3" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="15" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF7265BA-1E87-4DE8-B005-5FBB3F73FF7F}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="15" fieldListSortAscending="1">
   <location ref="A192:B217" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -21515,34 +20765,34 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="219">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="8">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="7">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="4">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="3">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -21557,7 +20807,7 @@
     </format>
   </formats>
   <conditionalFormats count="8">
-    <conditionalFormat priority="8">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -21565,7 +20815,127 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
             </reference>
             <reference field="12" count="8">
               <x v="12"/>
@@ -21605,7 +20975,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -21613,127 +20983,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
             </reference>
             <reference field="12" count="8">
               <x v="12"/>
@@ -21774,7 +21024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024B4ABA-0FEB-45A1-9992-5B940DDDB538}" name="PivotTable6" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="10" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024B4ABA-0FEB-45A1-9992-5B940DDDB538}" name="PivotTable6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" chartFormat="10" fieldListSortAscending="1">
   <location ref="A113:E139" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -21941,48 +21191,48 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="243">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="242">
+    <format dxfId="32">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="241">
+    <format dxfId="31">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="240">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="238">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="27">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="26">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="235">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="233">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="232">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -21994,7 +21244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22006,7 +21256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22018,7 +21268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22030,7 +21280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22042,7 +21292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22054,7 +21304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="5">
@@ -22067,7 +21317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22077,7 +21327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22087,7 +21337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22097,7 +21347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22107,7 +21357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22117,7 +21367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -22129,7 +21379,175 @@
     </format>
   </formats>
   <conditionalFormats count="16">
-    <conditionalFormat priority="24">
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="10">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="11">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="12">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="13">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="14">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="15">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="16">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -22138,6 +21556,150 @@
             </reference>
             <reference field="1" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="17">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="7"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="18">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="19">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="5"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="20">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="21">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="12" count="8">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="22">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -22177,7 +21739,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="22">
+    <conditionalFormat priority="24">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -22185,7 +21747,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="12" count="8">
               <x v="4"/>
@@ -22196,318 +21758,6 @@
               <x v="9"/>
               <x v="10"/>
               <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="21">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="20">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="19">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="18">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="17">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="16">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="15">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="14">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="13">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="12">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="11">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="10">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="6"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="9">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="7"/>
-            </reference>
-            <reference field="12" count="8">
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -22634,7 +21884,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C850CB00-5709-47E9-9C4F-2E1296B73D9E}" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C850CB00-5709-47E9-9C4F-2E1296B73D9E}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A17:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -22701,67 +21951,67 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="260">
+    <format dxfId="50">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="259">
+    <format dxfId="49">
       <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="48">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="257">
+    <format dxfId="47">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="256">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="45">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="44">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="253">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="251">
+    <format dxfId="41">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="250">
+    <format dxfId="40">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="249">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="247">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="246">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="245">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="244">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -23014,7 +22264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27F6EC08-55AD-42A8-B0F9-04E2BDF72ED0}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27F6EC08-55AD-42A8-B0F9-04E2BDF72ED0}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average of Accuracy(Validation)" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A2:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -23102,7 +22352,7 @@
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="280">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -23110,81 +22360,81 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="279">
+    <format dxfId="69">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="278">
+    <format dxfId="68">
       <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="277">
+    <format dxfId="67">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="66">
       <pivotArea dataOnly="0" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="275">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="272">
+    <format dxfId="62">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="269">
+    <format dxfId="59">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="268">
+    <format dxfId="58">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="267">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="265">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="264">
+    <format dxfId="54">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="263">
+    <format dxfId="53">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="262">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -23239,9 +22489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23279,7 +22529,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23385,7 +22635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23527,7 +22777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23539,28 +22789,28 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="18"/>
       <c r="C1" s="19" t="s">
         <v>24</v>
@@ -23595,7 +22845,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
         <v>32</v>
@@ -23646,7 +22896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -23665,7 +22915,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
         <v>17</v>
@@ -23716,7 +22966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -23785,7 +23035,7 @@
         <v>5.3575837561071885E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
@@ -23854,7 +23104,7 @@
         <v>9.6225044864939862E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
@@ -23923,7 +23173,7 @@
         <v>2.5458753860865761E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
@@ -23992,7 +23242,7 @@
         <v>6.3098981620002811E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -24061,7 +23311,7 @@
         <v>1.9245008972987331E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
@@ -24130,7 +23380,7 @@
         <v>5.3575837561072148E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
@@ -24199,7 +23449,7 @@
         <v>3.4694433324435663E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
@@ -24281,26 +23531,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24341,7 +23591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24385,7 +23635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24429,7 +23679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24473,7 +23723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24517,7 +23767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -24561,7 +23811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -24605,7 +23855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -24649,7 +23899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -24693,7 +23943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -24737,7 +23987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -24781,7 +24031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -24825,7 +24075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -24869,7 +24119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -24913,7 +24163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -24957,7 +24207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -25001,7 +24251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -25045,7 +24295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -25089,7 +24339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -25133,7 +24383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -25177,7 +24427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -25221,7 +24471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -25265,7 +24515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -25309,7 +24559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -25353,7 +24603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -25397,13 +24647,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -25465,19 +24715,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F1813-8953-45E6-934E-1F937A403243}">
   <dimension ref="A2:M267"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A262" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView showGridLines="0" topLeftCell="A268" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="L270" sqref="L270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.140625" customWidth="1"/>
-    <col min="2" max="6" width="20.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="71.109375" customWidth="1"/>
+    <col min="2" max="6" width="20.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -25488,7 +24738,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -25508,7 +24758,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -25528,7 +24778,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -25548,7 +24798,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -25568,7 +24818,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -25588,7 +24838,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -25608,7 +24858,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -25628,7 +24878,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -25647,7 +24897,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -25666,7 +24916,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -25685,7 +24935,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -25693,7 +24943,7 @@
       <c r="F13"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -25701,7 +24951,7 @@
       <c r="F14"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -25709,14 +24959,14 @@
       <c r="F15"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -25724,7 +24974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -25732,7 +24982,7 @@
         <v>0.81018518518518468</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -25740,7 +24990,7 @@
         <v>0.66481481481481441</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -25748,7 +24998,7 @@
         <v>0.69259259259259187</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -25756,7 +25006,7 @@
         <v>0.780555555555555</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -25764,7 +25014,7 @@
         <v>0.77407407407407336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -25772,7 +25022,7 @@
         <v>0.76666666666666627</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -25780,7 +25030,7 @@
         <v>0.78055555555555534</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -25788,7 +25038,7 @@
         <v>0.78611111111111065</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -25796,47 +25046,47 @@
         <v>0.75694444444444409</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="str" cm="1">
         <f t="array" aca="1" ref="A69:M93" ca="1">INDIRECT(A36)</f>
         <v>index</v>
@@ -25890,7 +25140,7 @@
         <v>Type</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <f ca="1"/>
         <v>16</v>
@@ -25944,7 +25194,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <f ca="1"/>
         <v>4</v>
@@ -25998,7 +25248,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <f ca="1"/>
         <v>10</v>
@@ -26052,7 +25302,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <f ca="1"/>
         <v>0</v>
@@ -26106,7 +25356,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <f ca="1"/>
         <v>12</v>
@@ -26160,7 +25410,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <f ca="1"/>
         <v>6</v>
@@ -26214,7 +25464,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <f ca="1"/>
         <v>3</v>
@@ -26268,7 +25518,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <f ca="1"/>
         <v>9</v>
@@ -26322,7 +25572,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <f ca="1"/>
         <v>15</v>
@@ -26376,7 +25626,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <f ca="1"/>
         <v>2</v>
@@ -26430,7 +25680,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <f ca="1"/>
         <v>8</v>
@@ -26484,7 +25734,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <f ca="1"/>
         <v>14</v>
@@ -26538,7 +25788,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <f ca="1"/>
         <v>1</v>
@@ -26592,7 +25842,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <f ca="1"/>
         <v>7</v>
@@ -26646,7 +25896,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <f ca="1"/>
         <v>13</v>
@@ -26700,7 +25950,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <f ca="1"/>
         <v>5</v>
@@ -26754,7 +26004,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <f ca="1"/>
         <v>11</v>
@@ -26808,7 +26058,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <f ca="1"/>
         <v>17</v>
@@ -26862,7 +26112,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <f ca="1"/>
         <v>4</v>
@@ -26916,7 +26166,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <f ca="1"/>
         <v>0</v>
@@ -26970,7 +26220,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <f ca="1"/>
         <v>2</v>
@@ -27024,7 +26274,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <f ca="1"/>
         <v>1</v>
@@ -27078,7 +26328,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <f ca="1"/>
         <v>5</v>
@@ -27132,7 +26382,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <f ca="1"/>
         <v>3</v>
@@ -27186,7 +26436,7 @@
         <v>BDLib2 With 375 features with augmentation (normalized)</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -27196,7 +26446,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -27206,7 +26456,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -27216,7 +26466,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -27226,7 +26476,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -27236,7 +26486,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -27246,7 +26496,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -27256,7 +26506,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -27266,7 +26516,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -27276,7 +26526,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -27286,7 +26536,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -27296,7 +26546,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -27306,7 +26556,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -27316,7 +26566,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="3"/>
@@ -27328,7 +26578,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="3"/>
@@ -27340,7 +26590,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="3"/>
@@ -27352,7 +26602,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
@@ -27364,7 +26614,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
@@ -27376,7 +26626,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -27384,7 +26634,7 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>22</v>
       </c>
@@ -27398,7 +26648,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>20</v>
       </c>
@@ -27418,7 +26668,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -27438,7 +26688,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="30" t="s">
         <v>45</v>
       </c>
@@ -27458,7 +26708,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="30" t="s">
         <v>41</v>
       </c>
@@ -27478,7 +26728,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
         <v>12</v>
       </c>
@@ -27498,7 +26748,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="30" t="s">
         <v>45</v>
       </c>
@@ -27518,7 +26768,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="30" t="s">
         <v>41</v>
       </c>
@@ -27538,7 +26788,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
         <v>13</v>
       </c>
@@ -27558,7 +26808,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
         <v>45</v>
       </c>
@@ -27578,7 +26828,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="30" t="s">
         <v>41</v>
       </c>
@@ -27597,7 +26847,7 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
         <v>14</v>
       </c>
@@ -27616,7 +26866,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="30" t="s">
         <v>45</v>
       </c>
@@ -27635,7 +26885,7 @@
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="30" t="s">
         <v>41</v>
       </c>
@@ -27654,7 +26904,7 @@
       <c r="F126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
         <v>15</v>
       </c>
@@ -27673,7 +26923,7 @@
       <c r="F127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="30" t="s">
         <v>45</v>
       </c>
@@ -27692,7 +26942,7 @@
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="30" t="s">
         <v>41</v>
       </c>
@@ -27711,7 +26961,7 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
         <v>16</v>
       </c>
@@ -27730,7 +26980,7 @@
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="30" t="s">
         <v>45</v>
       </c>
@@ -27749,7 +26999,7 @@
       <c r="F131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="30" t="s">
         <v>41</v>
       </c>
@@ -27768,7 +27018,7 @@
       <c r="F132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>36</v>
       </c>
@@ -27787,7 +27037,7 @@
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="29" t="s">
         <v>45</v>
       </c>
@@ -27806,7 +27056,7 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="29" t="s">
         <v>41</v>
       </c>
@@ -27825,7 +27075,7 @@
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>37</v>
       </c>
@@ -27845,7 +27095,7 @@
       <c r="G136"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="29" t="s">
         <v>45</v>
       </c>
@@ -27865,7 +27115,7 @@
       <c r="G137"/>
       <c r="J137" s="3"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="29" t="s">
         <v>41</v>
       </c>
@@ -27885,7 +27135,7 @@
       <c r="G138"/>
       <c r="J138" s="3"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>31</v>
       </c>
@@ -27905,7 +27155,7 @@
       <c r="G139"/>
       <c r="J139" s="3"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -27914,7 +27164,7 @@
       <c r="G140"/>
       <c r="J140" s="3"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -27923,7 +27173,7 @@
       <c r="G141"/>
       <c r="J141" s="3"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -27932,7 +27182,7 @@
       <c r="G142"/>
       <c r="J142" s="3"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -27941,7 +27191,7 @@
       <c r="G143"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -27949,7 +27199,7 @@
       <c r="F144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -27957,7 +27207,7 @@
       <c r="F145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
@@ -27965,7 +27215,7 @@
       <c r="F146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
@@ -27973,7 +27223,7 @@
       <c r="F147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -27981,7 +27231,7 @@
       <c r="F148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
@@ -27989,7 +27239,7 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
@@ -27997,7 +27247,7 @@
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
@@ -28005,7 +27255,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
@@ -28013,7 +27263,7 @@
       <c r="F152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
@@ -28021,7 +27271,7 @@
       <c r="F153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
@@ -28029,7 +27279,7 @@
       <c r="F154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
@@ -28037,7 +27287,7 @@
       <c r="F155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
@@ -28045,7 +27295,7 @@
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
@@ -28053,7 +27303,7 @@
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
@@ -28061,7 +27311,7 @@
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
@@ -28069,7 +27319,7 @@
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
@@ -28077,7 +27327,7 @@
       <c r="F160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
@@ -28085,7 +27335,7 @@
       <c r="F161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
@@ -28093,7 +27343,7 @@
       <c r="F162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
@@ -28101,7 +27351,7 @@
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
@@ -28109,7 +27359,7 @@
       <c r="F164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
@@ -28117,7 +27367,7 @@
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
@@ -28125,7 +27375,7 @@
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
@@ -28133,7 +27383,7 @@
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
@@ -28141,7 +27391,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
@@ -28149,7 +27399,7 @@
       <c r="F169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
@@ -28157,7 +27407,7 @@
       <c r="F170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
@@ -28165,7 +27415,7 @@
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
@@ -28173,7 +27423,7 @@
       <c r="F172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
@@ -28181,7 +27431,7 @@
       <c r="F173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -28189,7 +27439,7 @@
       <c r="F174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -28197,7 +27447,7 @@
       <c r="F175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
@@ -28205,7 +27455,7 @@
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
@@ -28213,7 +27463,7 @@
       <c r="F177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
@@ -28221,7 +27471,7 @@
       <c r="F178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
@@ -28229,7 +27479,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
@@ -28237,7 +27487,7 @@
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
@@ -28245,7 +27495,7 @@
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
@@ -28253,7 +27503,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
@@ -28261,7 +27511,7 @@
       <c r="F183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
@@ -28269,7 +27519,7 @@
       <c r="F184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
@@ -28277,7 +27527,7 @@
       <c r="F185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
@@ -28285,7 +27535,7 @@
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
@@ -28293,7 +27543,7 @@
       <c r="F187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
@@ -28301,10 +27551,10 @@
       <c r="F188"/>
       <c r="G188"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B190"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>20</v>
       </c>
@@ -28317,7 +27567,7 @@
       <c r="F192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>11</v>
       </c>
@@ -28330,7 +27580,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="29" t="s">
         <v>45</v>
       </c>
@@ -28343,7 +27593,7 @@
       <c r="F194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="29" t="s">
         <v>41</v>
       </c>
@@ -28356,7 +27606,7 @@
       <c r="F195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="28" t="s">
         <v>12</v>
       </c>
@@ -28369,7 +27619,7 @@
       <c r="F196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="29" t="s">
         <v>45</v>
       </c>
@@ -28382,7 +27632,7 @@
       <c r="F197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="29" t="s">
         <v>41</v>
       </c>
@@ -28395,7 +27645,7 @@
       <c r="F198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="28" t="s">
         <v>13</v>
       </c>
@@ -28408,7 +27658,7 @@
       <c r="F199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="29" t="s">
         <v>45</v>
       </c>
@@ -28421,7 +27671,7 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="29" t="s">
         <v>41</v>
       </c>
@@ -28434,7 +27684,7 @@
       <c r="F201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="28" t="s">
         <v>14</v>
       </c>
@@ -28447,7 +27697,7 @@
       <c r="F202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="29" t="s">
         <v>45</v>
       </c>
@@ -28460,7 +27710,7 @@
       <c r="F203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="29" t="s">
         <v>41</v>
       </c>
@@ -28473,7 +27723,7 @@
       <c r="F204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="28" t="s">
         <v>15</v>
       </c>
@@ -28486,7 +27736,7 @@
       <c r="F205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="29" t="s">
         <v>45</v>
       </c>
@@ -28499,7 +27749,7 @@
       <c r="F206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
         <v>41</v>
       </c>
@@ -28512,7 +27762,7 @@
       <c r="F207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="28" t="s">
         <v>16</v>
       </c>
@@ -28525,7 +27775,7 @@
       <c r="F208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="29" t="s">
         <v>45</v>
       </c>
@@ -28538,7 +27788,7 @@
       <c r="F209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="29" t="s">
         <v>41</v>
       </c>
@@ -28551,7 +27801,7 @@
       <c r="F210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>36</v>
       </c>
@@ -28564,7 +27814,7 @@
       <c r="F211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="29" t="s">
         <v>45</v>
       </c>
@@ -28577,7 +27827,7 @@
       <c r="F212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="29" t="s">
         <v>41</v>
       </c>
@@ -28590,7 +27840,7 @@
       <c r="F213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>37</v>
       </c>
@@ -28603,7 +27853,7 @@
       <c r="F214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="29" t="s">
         <v>45</v>
       </c>
@@ -28616,7 +27866,7 @@
       <c r="F215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="29" t="s">
         <v>41</v>
       </c>
@@ -28629,7 +27879,7 @@
       <c r="F216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>31</v>
       </c>
@@ -28642,7 +27892,7 @@
       <c r="F217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
@@ -28650,7 +27900,7 @@
       <c r="F218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
@@ -28658,7 +27908,7 @@
       <c r="F219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
@@ -28666,7 +27916,7 @@
       <c r="F220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
@@ -28674,7 +27924,7 @@
       <c r="F221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
@@ -28682,7 +27932,7 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
@@ -28690,7 +27940,7 @@
       <c r="F223"/>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
@@ -28698,7 +27948,7 @@
       <c r="F224"/>
       <c r="G224"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
@@ -28706,7 +27956,7 @@
       <c r="F225"/>
       <c r="G225"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
@@ -28714,7 +27964,7 @@
       <c r="F226"/>
       <c r="G226"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
@@ -28722,7 +27972,7 @@
       <c r="F227"/>
       <c r="G227"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
@@ -28730,7 +27980,7 @@
       <c r="F228"/>
       <c r="G228"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
@@ -28738,7 +27988,7 @@
       <c r="F229"/>
       <c r="G229"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
@@ -28746,7 +27996,7 @@
       <c r="F230"/>
       <c r="G230"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
@@ -28754,7 +28004,7 @@
       <c r="F231"/>
       <c r="G231"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
@@ -28762,7 +28012,7 @@
       <c r="F232"/>
       <c r="G232"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
@@ -28770,7 +28020,7 @@
       <c r="F233"/>
       <c r="G233"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
@@ -28778,7 +28028,7 @@
       <c r="F234"/>
       <c r="G234"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
@@ -28786,7 +28036,7 @@
       <c r="F235"/>
       <c r="G235"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
@@ -28794,7 +28044,7 @@
       <c r="F236"/>
       <c r="G236"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
@@ -28802,7 +28052,7 @@
       <c r="F237"/>
       <c r="G237"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
@@ -28810,7 +28060,7 @@
       <c r="F238"/>
       <c r="G238"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
@@ -28818,7 +28068,7 @@
       <c r="F239"/>
       <c r="G239"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
@@ -28826,7 +28076,7 @@
       <c r="F240"/>
       <c r="G240"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
@@ -28834,7 +28084,7 @@
       <c r="F241"/>
       <c r="G241"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
@@ -28842,7 +28092,7 @@
       <c r="F242"/>
       <c r="G242"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
@@ -28850,7 +28100,7 @@
       <c r="F243"/>
       <c r="G243"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
@@ -28858,7 +28108,7 @@
       <c r="F244"/>
       <c r="G244"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
@@ -28866,7 +28116,7 @@
       <c r="F245"/>
       <c r="G245"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
@@ -28874,7 +28124,7 @@
       <c r="F246"/>
       <c r="G246"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
@@ -28882,7 +28132,7 @@
       <c r="F247"/>
       <c r="G247"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
@@ -28890,7 +28140,7 @@
       <c r="F248"/>
       <c r="G248"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
@@ -28898,7 +28148,7 @@
       <c r="F249"/>
       <c r="G249"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
@@ -28906,7 +28156,7 @@
       <c r="F250"/>
       <c r="G250"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
@@ -28914,7 +28164,7 @@
       <c r="F251"/>
       <c r="G251"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
@@ -28922,7 +28172,7 @@
       <c r="F252"/>
       <c r="G252"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
@@ -28930,7 +28180,7 @@
       <c r="F253"/>
       <c r="G253"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
@@ -28938,7 +28188,7 @@
       <c r="F254"/>
       <c r="G254"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
@@ -28946,7 +28196,7 @@
       <c r="F255"/>
       <c r="G255"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
@@ -28954,7 +28204,7 @@
       <c r="F256"/>
       <c r="G256"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
@@ -28962,7 +28212,7 @@
       <c r="F257"/>
       <c r="G257"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
@@ -28970,7 +28220,7 @@
       <c r="F258"/>
       <c r="G258"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
@@ -28978,7 +28228,7 @@
       <c r="F259"/>
       <c r="G259"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
@@ -28986,7 +28236,7 @@
       <c r="F260"/>
       <c r="G260"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
@@ -28994,7 +28244,7 @@
       <c r="F261"/>
       <c r="G261"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
@@ -29002,7 +28252,7 @@
       <c r="F262"/>
       <c r="G262"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
@@ -29010,7 +28260,7 @@
       <c r="F263"/>
       <c r="G263"/>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -29018,7 +28268,7 @@
       <c r="F264"/>
       <c r="G264"/>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
@@ -29026,7 +28276,7 @@
       <c r="F265"/>
       <c r="G265"/>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
@@ -29034,7 +28284,7 @@
       <c r="F266"/>
       <c r="G266"/>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
@@ -29360,26 +28610,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29420,7 +28670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29464,7 +28714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29508,7 +28758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29552,7 +28802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29596,7 +28846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29640,7 +28890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29684,7 +28934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -29728,7 +28978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -29772,7 +29022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -29816,7 +29066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -29860,7 +29110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -29904,7 +29154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -29948,7 +29198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -29992,7 +29242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -30036,7 +29286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -30080,7 +29330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -30124,7 +29374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -30168,7 +29418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -30212,7 +29462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -30256,7 +29506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -30300,7 +29550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -30344,7 +29594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -30388,7 +29638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -30432,7 +29682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -30476,13 +29726,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -30546,26 +29796,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30606,7 +29856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -30650,7 +29900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -30694,7 +29944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -30738,7 +29988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -30782,7 +30032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -30826,7 +30076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -30870,7 +30120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30914,7 +30164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30958,7 +30208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31002,7 +30252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -31046,7 +30296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -31090,7 +30340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -31134,7 +30384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -31178,7 +30428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -31222,7 +30472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -31266,7 +30516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -31310,7 +30560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -31354,7 +30604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -31398,7 +30648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -31442,7 +30692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -31486,7 +30736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -31530,7 +30780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -31574,7 +30824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -31618,7 +30868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -31662,13 +30912,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -31732,26 +30982,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31792,7 +31042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -31836,7 +31086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31880,7 +31130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31924,7 +31174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31968,7 +31218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -32012,7 +31262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -32056,7 +31306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -32100,7 +31350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -32144,7 +31394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -32188,7 +31438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -32232,7 +31482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -32276,7 +31526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -32320,7 +31570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -32364,7 +31614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -32408,7 +31658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -32452,7 +31702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -32496,7 +31746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -32540,7 +31790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -32584,7 +31834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -32628,7 +31878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -32672,7 +31922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -32716,7 +31966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -32760,7 +32010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -32804,7 +32054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -32848,13 +32098,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -32920,26 +32170,26 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32980,7 +32230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -33024,7 +32274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -33068,7 +32318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -33112,7 +32362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -33156,7 +32406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -33200,7 +32450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -33244,7 +32494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -33288,7 +32538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -33332,7 +32582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -33376,7 +32626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -33420,7 +32670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -33464,7 +32714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -33508,7 +32758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -33552,7 +32802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -33596,7 +32846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -33640,7 +32890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -33684,7 +32934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -33728,7 +32978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -33772,7 +33022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -33816,7 +33066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -33860,7 +33110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -33904,7 +33154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -33948,7 +33198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -33992,7 +33242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -34036,13 +33286,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -34106,26 +33356,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34166,7 +33416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -34210,7 +33460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -34254,7 +33504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -34298,7 +33548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -34342,7 +33592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -34386,7 +33636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -34430,7 +33680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -34474,7 +33724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -34518,7 +33768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -34562,7 +33812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -34606,7 +33856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -34650,7 +33900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -34694,7 +33944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -34738,7 +33988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -34782,7 +34032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -34826,7 +34076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -34870,7 +34120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -34914,7 +34164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -34958,7 +34208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -35002,7 +34252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -35046,7 +34296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -35090,7 +34340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -35134,7 +34384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -35178,7 +34428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -35222,13 +34472,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -35292,26 +34542,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35352,7 +34602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -35396,7 +34646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -35440,7 +34690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -35484,7 +34734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -35528,7 +34778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -35572,7 +34822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -35616,7 +34866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -35660,7 +34910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -35704,7 +34954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35748,7 +34998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -35792,7 +35042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -35836,7 +35086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -35880,7 +35130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -35924,7 +35174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -35968,7 +35218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -36012,7 +35262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -36056,7 +35306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -36100,7 +35350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -36144,7 +35394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -36188,7 +35438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -36232,7 +35482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -36276,7 +35526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -36320,7 +35570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -36364,7 +35614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -36408,13 +35658,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
@@ -36478,26 +35728,26 @@
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36538,7 +35788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -36582,7 +35832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -36626,7 +35876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -36670,7 +35920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -36714,7 +35964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -36758,7 +36008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -36802,7 +36052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -36846,7 +36096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -36890,7 +36140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -36934,7 +36184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -36978,7 +36228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -37022,7 +36272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -37066,7 +36316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -37110,7 +36360,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -37154,7 +36404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -37198,7 +36448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -37242,7 +36492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -37286,7 +36536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -37330,7 +36580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -37374,7 +36624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -37418,7 +36668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -37462,7 +36712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -37506,7 +36756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -37550,7 +36800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -37594,13 +36844,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
   </sheetData>
